--- a/updatedSprintSheet_2.xlsx
+++ b/updatedSprintSheet_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rolli\Desktop\CS342\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingx\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F7EA53D-8441-4520-B99A-29E370D71962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F6F3D-A4D4-4F70-B26A-26183B9B8205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{295B521D-40CD-0741-A7F0-C29826591B86}"/>
   </bookViews>
   <sheets>
     <sheet name="April 1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Action Item</t>
   </si>
@@ -116,15 +116,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Quit Button</t>
-  </si>
-  <si>
-    <t>Guessed Number Tracker (keeps a list of numbers that have already been guessed so another player does not guess the same number)</t>
-  </si>
-  <si>
-    <t>IN PROGRESS</t>
-  </si>
-  <si>
     <t>Chat Box (implements player communication)</t>
   </si>
   <si>
@@ -143,16 +134,28 @@
     <t>Client Connection</t>
   </si>
   <si>
-    <t>Too High / Too Low (Multiple Rounds) [Undecided]</t>
-  </si>
-  <si>
-    <t>Player Class (function that determines whether the guessed number is closer to the generated number on the higher end)</t>
-  </si>
-  <si>
     <t>Player Class (function that determines whether the guessed number is closer to the generated number on the lower end)</t>
   </si>
   <si>
     <t>Week Of: 4/25/19</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>Player Class (function that determines whether the guessed number is closer to the generated number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI and the overall design </t>
+  </si>
+  <si>
+    <t>Guessed Number Tracker (keeps track of the number of times a player has guessed)</t>
+  </si>
+  <si>
+    <t>Handle what to do when players quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win conditions </t>
   </si>
 </sst>
 </file>
@@ -521,23 +524,23 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="52" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="20.7" thickBottom="1" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.5" thickBottom="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="53" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6484375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.34765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.34765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.34765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -559,9 +562,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1" t="s">
@@ -571,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -583,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D5" s="2"/>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -592,10 +595,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="52.2" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -618,24 +621,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="9" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:7" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -644,30 +647,30 @@
         <v>19</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -675,16 +678,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -692,60 +695,60 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>9</v>
@@ -754,12 +757,12 @@
         <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -768,12 +771,12 @@
         <v>18</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>11</v>
@@ -782,63 +785,76 @@
         <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="22" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="23" spans="1:5" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.85"/>
-    <row r="32" spans="1:5" ht="29.7" thickBot="1" x14ac:dyDescent="0.85">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:5" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:5" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="33" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="34" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="35" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="36" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="37" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="38" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="39" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="40" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="4:5" ht="26.4" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="41" spans="4:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
